--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="flip1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +436,731 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_payout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Restocks_payout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Stockx_price</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Restocks_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Max_ZL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Curr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pastel Grind Vivid Green (GS)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DJ0341-100</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>468.37062000000003</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pastel Grind Vivid Green (GS)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DJ0341-100</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>468.37062000000003</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pastel Grind Vivid Green (GS)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DJ0341-100</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>468.37062000000003</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pastel Grind Vivid Green (GS)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DJ0341-100</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>468.37062000000003</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pastel Grind Vivid Green (GS)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DJ0341-100</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>468.37062000000003</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>391.239047</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Triple White Tumbled Leather</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>553558-130</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>500.191693</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>500.191693</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Triple White Tumbled Leather</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>553558-130</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>470.47733500000004</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>470.47733500000004</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Triple White Tumbled Leather</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>553558-130</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>470.47733500000004</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>664.4327400000001</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Restocks</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>664.4327400000001</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Triple White Tumbled Leather</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>553558-130</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>539.8108370000001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>583.4505600000001</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>539.8108370000001</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Triple White Tumbled Leather</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>553558-130</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>539.8108370000001</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>583.4505600000001</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>539.8108370000001</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Triple White 2.0 (2020)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>554724-130</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>440.76297700000003</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>440.76297700000003</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Triple White 2.0 (2020)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>554724-130</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>554.668016</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Stockx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>554.668016</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\priceChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FD3A7-5925-4F27-9A6F-D1C1A0CFDE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC95B569-E949-4C62-9125-4B83B597BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip1" sheetId="7" r:id="rId1"/>
     <sheet name="flip2" sheetId="8" r:id="rId2"/>
+    <sheet name="hold1" sheetId="10" r:id="rId3"/>
+    <sheet name="expected1" sheetId="11" r:id="rId4"/>
+    <sheet name="expected2" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="54">
   <si>
     <t>size</t>
   </si>
@@ -63,9 +66,6 @@
     <t>DD1503-200</t>
   </si>
   <si>
-    <t>DD1391-100</t>
-  </si>
-  <si>
     <t>9.5</t>
   </si>
   <si>
@@ -84,46 +84,121 @@
     <t>8.5</t>
   </si>
   <si>
-    <t>DV6773-220</t>
-  </si>
-  <si>
     <t>DH6927-140</t>
   </si>
   <si>
     <t>BB550NCA</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>GSB550PB</t>
-  </si>
-  <si>
     <t>6.5Y</t>
   </si>
   <si>
-    <t>BB550WTG</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
     <t>10.5W</t>
   </si>
   <si>
     <t>6W</t>
   </si>
   <si>
-    <t>HQ6075</t>
-  </si>
-  <si>
-    <t>GX6144</t>
-  </si>
-  <si>
     <t>HQ6316</t>
   </si>
   <si>
     <t>GW1934</t>
+  </si>
+  <si>
+    <t>CW1590-100</t>
+  </si>
+  <si>
+    <t>GZ9177</t>
+  </si>
+  <si>
+    <t>FZ5896</t>
+  </si>
+  <si>
+    <t>FZ5904</t>
+  </si>
+  <si>
+    <t>DC0774-141</t>
+  </si>
+  <si>
+    <t>7W</t>
+  </si>
+  <si>
+    <t>9W</t>
+  </si>
+  <si>
+    <t>DR0501-101</t>
+  </si>
+  <si>
+    <t>9.5W</t>
+  </si>
+  <si>
+    <t>AH7860-101</t>
+  </si>
+  <si>
+    <t>8.5W</t>
+  </si>
+  <si>
+    <t>BB550PB</t>
+  </si>
+  <si>
+    <t>10W</t>
+  </si>
+  <si>
+    <t>6.5W</t>
+  </si>
+  <si>
+    <t>DX3382-400</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>DH8009-600</t>
+  </si>
+  <si>
+    <t>5.5Y</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>DJ6188-003</t>
+  </si>
+  <si>
+    <t>DN3866-100</t>
+  </si>
+  <si>
+    <t>DD1391-402</t>
+  </si>
+  <si>
+    <t>DD9315-002</t>
+  </si>
+  <si>
+    <t>DD1399-107</t>
+  </si>
+  <si>
+    <t>DJ6188-200</t>
+  </si>
+  <si>
+    <t>DO9457-100</t>
+  </si>
+  <si>
+    <t>8W</t>
+  </si>
+  <si>
+    <t>CT8012-116</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>378038-116</t>
+  </si>
+  <si>
+    <t>HP6772</t>
+  </si>
+  <si>
+    <t>B75807</t>
   </si>
 </sst>
 </file>
@@ -463,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D8729A-18E2-4B95-9549-55CC05229F1C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,11 +572,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -509,228 +584,211 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>329</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>105</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -740,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134B384B-EC93-4FA7-9DF8-8490B7940234}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,61 +832,1142 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>280</v>
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C2ABE8-EBDE-4A1D-AA64-9762D4A6AB62}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A3868-4151-4C69-9165-822F78043B56}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
       <c r="B5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -837,7 +1976,144 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>191</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD372BE-8E56-4EE6-B382-6D9284E58194}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\priceChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C0953-A523-4AC2-B3A3-97CB1F6B16DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAA37F5-F80E-47B3-B0B3-0A9D0B3EE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip1" sheetId="11" r:id="rId1"/>
     <sheet name="flip2" sheetId="20" r:id="rId2"/>
     <sheet name="hold1" sheetId="16" r:id="rId3"/>
-    <sheet name="expected1" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="46">
   <si>
     <t>size</t>
   </si>
@@ -111,9 +110,6 @@
     <t>553558-371</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>DD1399-106</t>
   </si>
   <si>
@@ -171,28 +167,10 @@
     <t>11.5W</t>
   </si>
   <si>
-    <t>BD7633</t>
-  </si>
-  <si>
     <t>11W</t>
   </si>
   <si>
     <t>1135092-CHE</t>
-  </si>
-  <si>
-    <t>554724-096</t>
-  </si>
-  <si>
-    <t>BB550WTG</t>
-  </si>
-  <si>
-    <t>DD1391-103</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>DN1431-102</t>
   </si>
 </sst>
 </file>
@@ -578,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,10 +600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F19306F-943F-4024-87F4-4766DAE7D83B}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,10 +634,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -668,15 +646,15 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -685,15 +663,15 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -702,15 +680,15 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -719,15 +697,15 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -736,15 +714,15 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -753,15 +731,15 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -770,15 +748,15 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -787,15 +765,15 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -804,15 +782,15 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -821,15 +799,15 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -838,15 +816,15 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -855,15 +833,15 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -872,15 +850,15 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -889,15 +867,15 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -906,15 +884,15 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -923,15 +901,15 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -940,15 +918,15 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -957,15 +935,15 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -979,10 +957,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -996,10 +974,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1013,10 +991,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1030,10 +1008,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1047,10 +1025,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1064,10 +1042,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1081,10 +1059,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1098,10 +1076,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1115,10 +1093,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1132,10 +1110,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1144,15 +1122,15 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1161,15 +1139,15 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1178,15 +1156,15 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1195,15 +1173,15 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1212,15 +1190,15 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1229,15 +1207,15 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1246,15 +1224,15 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1263,15 +1241,15 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1280,15 +1258,15 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1297,15 +1275,15 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1314,15 +1292,15 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1331,15 +1309,15 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1348,15 +1326,15 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1365,15 +1343,15 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1382,12 +1360,12 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -1399,15 +1377,15 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1416,15 +1394,15 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1433,12 +1411,12 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -1450,12 +1428,12 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -1467,12 +1445,12 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -1484,15 +1462,15 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1501,15 +1479,15 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1518,15 +1496,15 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1535,15 +1513,15 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1552,15 +1530,15 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1569,15 +1547,15 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1586,15 +1564,15 @@
         <v>5</v>
       </c>
       <c r="E56">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1603,23 +1581,482 @@
         <v>5</v>
       </c>
       <c r="E57">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>33</v>
       </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58">
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85">
         <v>140</v>
       </c>
     </row>
@@ -1630,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A12F8D-EB59-469A-813B-3677D7978652}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1710,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1727,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1853,8 +2290,8 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
+      <c r="B13">
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1863,16 +2300,16 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>220</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
         <v>6</v>
       </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -1880,15 +2317,15 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>270</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1897,15 +2334,15 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1914,15 +2351,15 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1931,15 +2368,15 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1948,15 +2385,15 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1965,15 +2402,15 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1982,15 +2419,15 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1999,15 +2436,15 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2016,15 +2453,15 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2033,15 +2470,15 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2050,15 +2487,15 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2067,15 +2504,15 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2084,15 +2521,15 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2101,15 +2538,15 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2118,15 +2555,15 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2135,15 +2572,15 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2152,15 +2589,15 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>175</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2169,15 +2606,15 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>175</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2186,15 +2623,15 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2203,15 +2640,15 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2220,15 +2657,15 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2237,15 +2674,15 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2254,15 +2691,15 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2271,16 +2708,16 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
@@ -2288,15 +2725,15 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2305,15 +2742,15 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2322,15 +2759,15 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2339,15 +2776,15 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2356,15 +2793,15 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2373,15 +2810,15 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2390,15 +2827,15 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2407,15 +2844,15 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2424,15 +2861,15 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2441,15 +2878,15 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2458,15 +2895,15 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2475,15 +2912,15 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2492,15 +2929,15 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2509,15 +2946,15 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2526,1406 +2963,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80">
-        <v>14</v>
-      </c>
-      <c r="C80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80">
         <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD118BB-FAA2-44EC-9280-7AA211666F51}">
-  <dimension ref="A1:E55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:E55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3933,7 +2971,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3942,41 +2980,7 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>133</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
